--- a/mapeo.xlsx
+++ b/mapeo.xlsx
@@ -5,11 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="980" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$E$35</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="52">
   <si>
     <t>Método de FUSE</t>
   </si>
@@ -43,16 +46,19 @@
     <t>No</t>
   </si>
   <si>
+    <t>Si</t>
+  </si>
+  <si>
     <t>bmap</t>
   </si>
   <si>
+    <t>??</t>
+  </si>
+  <si>
     <t>chmod</t>
   </si>
   <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>Quizas</t>
+    <t>Desable</t>
   </si>
   <si>
     <t>chown</t>
@@ -70,7 +76,7 @@
     <t>Dudoso</t>
   </si>
   <si>
-    <t>Quizás</t>
+    <t>No (sirve en statefull)</t>
   </si>
   <si>
     <t>libc</t>
@@ -85,9 +91,6 @@
     <t>fsyncdir</t>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
     <t>getattr</t>
   </si>
   <si>
@@ -112,6 +115,9 @@
     <t>lock</t>
   </si>
   <si>
+    <t>No (explicar pq)</t>
+  </si>
+  <si>
     <t>mkdir</t>
   </si>
   <si>
@@ -157,6 +163,9 @@
     <t>statfs</t>
   </si>
   <si>
+    <t>Si (ojo)</t>
+  </si>
+  <si>
     <t>symlink</t>
   </si>
   <si>
@@ -167,9 +176,6 @@
   </si>
   <si>
     <t>utimens</t>
-  </si>
-  <si>
-    <t>Deseable</t>
   </si>
   <si>
     <t>write</t>
@@ -187,6 +193,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -207,12 +214,14 @@
       <sz val="10"/>
       <name val="Liberation Mono;Courier New;Cousine;DejaVu Sans Mono;Courier;Monaco"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -257,8 +266,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -282,6 +295,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -289,145 +306,151 @@
   </sheetPr>
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3061224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.515306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="12.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C2" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
+      <c r="A4" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="0" t="s">
+      <c r="C10" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="0" t="s">
@@ -438,7 +461,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="0" t="s">
@@ -447,253 +470,254 @@
       <c r="C13" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>21</v>
-      </c>
       <c r="C25" s="0" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>40</v>
+      <c r="A26" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>41</v>
+      <c r="A27" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>42</v>
+      <c r="A28" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>43</v>
+      <c r="A29" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>44</v>
+      <c r="A30" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>45</v>
+      <c r="A31" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>46</v>
+      <c r="A32" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>47</v>
+      <c r="A33" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>48</v>
+      <c r="A34" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>50</v>
+      <c r="A35" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E35"/>
   <hyperlinks>
     <hyperlink ref="D13" r:id="rId1" location="fusell.FUSELL.init" display="Doc"/>
   </hyperlinks>
@@ -704,5 +728,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>